--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -441,7 +441,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://b-techbw.github.io/emr-lis-bw-ig/ValueSet/bw-lab-diagnostic-report-status-vs</t>
+    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-diagnostic-report-status-vs</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -578,7 +578,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>http://b-techbw.github.io/emr-lis-bw-ig/ValueSet/bw-lab-order-code-vs</t>
+    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-order-code-vs</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -831,7 +831,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://b-techbw.github.io/emr-lis-bw-ig/StructureDefinition/bw-lab-observation)
+    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-lab-observation)
 </t>
   </si>
   <si>
@@ -1193,7 +1193,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.8515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="348">
   <si>
     <t>Path</t>
   </si>
@@ -147,6 +147,9 @@
     <t>*</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -178,9 +181,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">string
 </t>
   </si>
@@ -438,6 +438,9 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
+    <t>final</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -459,522 +462,620 @@
     <t>DiagnosticReport.category</t>
   </si>
   <si>
-    <t>Department
-Sub-departmentServiceDiscipline</t>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
+  </si>
+  <si>
+    <t>Concept - reference to a terminology or just  text</t>
+  </si>
+  <si>
+    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code</t>
+  </si>
+  <si>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {http://hl7.org/fhir/uv/ips/StructureDefinition/Coding-uv-ips}
+</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-order-code-vs</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>The text should be at the displayName level and not on this level.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Patient-uv-ips|Group)
+</t>
+  </si>
+  <si>
+    <t>The subject of the report - usually, but not always, the patient</t>
+  </si>
+  <si>
+    <t>The subject of the report. Usually, but not always, this is a patient. However, diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
+  </si>
+  <si>
+    <t>SHALL know the subject context.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Health care event when test ordered</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) which this DiagnosticReport is about.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter  but still be tied to the context of the encounter  (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>Links the request to the Encounter context.</t>
+  </si>
+  <si>
+    <t>Event.encounter</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.effective[x]</t>
+  </si>
+  <si>
+    <t>Observation time
+Effective TimeOccurrence</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for report</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.</t>
+  </si>
+  <si>
+    <t>Need to know where in the patient history to file/present this report.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBR-7</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.effective[x].id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.effective[x].extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason}
+</t>
+  </si>
+  <si>
+    <t>effective[x] absence reason</t>
+  </si>
+  <si>
+    <t>Provides a reason why the effectiveTime is missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.issued</t>
+  </si>
+  <si>
+    <t>Date published
+Date IssuedDate Verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>DateTime this version was made</t>
+  </si>
+  <si>
+    <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
+  </si>
+  <si>
+    <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.</t>
+  </si>
+  <si>
+    <t>Clinicians need to be able to check the date that the report was released.</t>
+  </si>
+  <si>
+    <t>OBR-22</t>
+  </si>
+  <si>
+    <t>participation[typeCode=VRF or AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer</t>
+  </si>
+  <si>
+    <t>Laboratory
+ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Practitioner-uv-ips|http://hl7.org/fhir/uv/ips/StructureDefinition/PractitionerRole-uv-ips|http://hl7.org/fhir/uv/ips/StructureDefinition/Organization-uv-ips|CareTeam)
+</t>
+  </si>
+  <si>
+    <t>Responsible Diagnostic Service</t>
+  </si>
+  <si>
+    <t>The diagnostic service that is responsible for issuing the report.</t>
+  </si>
+  <si>
+    <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.</t>
+  </si>
+  <si>
+    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.resultsInterpreter</t>
+  </si>
+  <si>
+    <t>Analyzed by
+Reported by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+</t>
+  </si>
+  <si>
+    <t>Primary result interpreter</t>
+  </si>
+  <si>
+    <t>The practitioner or organization that is responsible for the report's conclusions and interpretations.</t>
+  </si>
+  <si>
+    <t>Might not be the same entity that takes responsibility for the clinical report.</t>
+  </si>
+  <si>
+    <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Specimen-uv-ips)
+</t>
+  </si>
+  <si>
+    <t>Specimens this report is based on</t>
+  </si>
+  <si>
+    <t>Details about the specimens on which this diagnostic report is based.</t>
+  </si>
+  <si>
+    <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.</t>
+  </si>
+  <si>
+    <t>Need to be able to report information about the collected specimens on which the report is based.</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.result</t>
+  </si>
+  <si>
+    <t>Data
+Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-lab-observation)
+</t>
+  </si>
+  <si>
+    <t>Observation results included in the diagnostic report.</t>
+  </si>
+  <si>
+    <t>Observations can contain observations.</t>
+  </si>
+  <si>
+    <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile:$this.resolve()}
+</t>
+  </si>
+  <si>
+    <t>OBXs</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=COMP].target</t>
+  </si>
+  <si>
+    <t>observation-results</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>[Observations](http://hl7.org/fhir/R4/observation.html)  that are part of this diagnostic report.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.imagingStudy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Reference to full details of imaging associated with the diagnostic report</t>
+  </si>
+  <si>
+    <t>One or more links to full details of any imaging performed during the diagnostic investigation. Typically, this is imaging performed by DICOM enabled modalities, but this is not required. A fully enabled PACS viewer can use this information to provide views of the source images.</t>
+  </si>
+  <si>
+    <t>ImagingStudy and the image element are somewhat overlapping - typically, the list of image references in the image element will also be found in one of the imaging study resources. However, each caters to different types of displays for different types of purposes. Neither, either, or both may be provided.</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media</t>
+  </si>
+  <si>
+    <t>DICOM
+SlidesScans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Key images associated with this report</t>
+  </si>
+  <si>
+    <t>A list of key images associated with this report. The images are generally created during the diagnostic process, and may be directly of the patient, or of treated specimens (i.e. slides of interest).</t>
+  </si>
+  <si>
+    <t>Many diagnostic services include images in the report as part of their service.</t>
+  </si>
+  <si>
+    <t>OBX?</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.comment</t>
+  </si>
+  <si>
+    <t>Comment about the image (e.g. explanation)</t>
+  </si>
+  <si>
+    <t>A comment about the image. Typically, this is used to provide an explanation for why the image is included, or to draw the viewer's attention to important features.</t>
+  </si>
+  <si>
+    <t>The comment should be displayed with the image. It would be common for the report to include additional discussion of the image contents in other sections such as the conclusion.</t>
+  </si>
+  <si>
+    <t>The provider of the report should make a comment about each image included in the report.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Media)
+</t>
+  </si>
+  <si>
+    <t>Reference to the image source</t>
+  </si>
+  <si>
+    <t>Reference to the image source.</t>
+  </si>
+  <si>
+    <t>.value.reference</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.conclusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report
+</t>
+  </si>
+  <si>
+    <t>Clinical conclusion (interpretation) of test results</t>
+  </si>
+  <si>
+    <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide a conclusion that is not lost among the basic result data.</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode="SPRT"].source[classCode=OBS, moodCode=EVN, code=LOINC:48767-8].value (type=ST)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Service category</t>
-  </si>
-  <si>
-    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type
-</t>
-  </si>
-  <si>
-    <t>Name/Code for this diagnostic report</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-order-code-vs</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
-</t>
-  </si>
-  <si>
-    <t>The subject of the report - usually, but not always, the patient</t>
-  </si>
-  <si>
-    <t>The subject of the report. Usually, but not always, this is a patient. However, diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
-  </si>
-  <si>
-    <t>SHALL know the subject context.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Health care event when test ordered</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) which this DiagnosticReport is about.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter  but still be tied to the context of the encounter  (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>Links the request to the Encounter context.</t>
-  </si>
-  <si>
-    <t>Event.encounter</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.effective[x]</t>
-  </si>
-  <si>
-    <t>Observation time
-Effective TimeOccurrence</t>
-  </si>
-  <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for report</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.</t>
-  </si>
-  <si>
-    <t>Need to know where in the patient history to file/present this report.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBR-7</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.issued</t>
-  </si>
-  <si>
-    <t>Date published
-Date IssuedDate Verified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>DateTime this version was made</t>
-  </si>
-  <si>
-    <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
-  </si>
-  <si>
-    <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.</t>
-  </si>
-  <si>
-    <t>Clinicians need to be able to check the date that the report was released.</t>
-  </si>
-  <si>
-    <t>OBR-22</t>
-  </si>
-  <si>
-    <t>participation[typeCode=VRF or AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer</t>
-  </si>
-  <si>
-    <t>Laboratory
-ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
-</t>
-  </si>
-  <si>
-    <t>Responsible Diagnostic Service</t>
-  </si>
-  <si>
-    <t>The diagnostic service that is responsible for issuing the report.</t>
-  </si>
-  <si>
-    <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.</t>
-  </si>
-  <si>
-    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.resultsInterpreter</t>
-  </si>
-  <si>
-    <t>Analyzed by
-Reported by</t>
-  </si>
-  <si>
-    <t>Primary result interpreter</t>
-  </si>
-  <si>
-    <t>The practitioner or organization that is responsible for the report's conclusions and interpretations.</t>
-  </si>
-  <si>
-    <t>Might not be the same entity that takes responsibility for the clinical report.</t>
-  </si>
-  <si>
-    <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Specimens this report is based on</t>
-  </si>
-  <si>
-    <t>Details about the specimens on which this diagnostic report is based.</t>
-  </si>
-  <si>
-    <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.</t>
-  </si>
-  <si>
-    <t>Need to be able to report information about the collected specimens on which the report is based.</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.result</t>
-  </si>
-  <si>
-    <t>Data
-Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-lab-observation)
-</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>[Observations](http://hl7.org/fhir/R4/observation.html)  that are part of this diagnostic report.</t>
-  </si>
-  <si>
-    <t>Observations can contain observations.</t>
-  </si>
-  <si>
-    <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.</t>
-  </si>
-  <si>
-    <t>OBXs</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=COMP].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.imagingStudy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Reference to full details of imaging associated with the diagnostic report</t>
-  </si>
-  <si>
-    <t>One or more links to full details of any imaging performed during the diagnostic investigation. Typically, this is imaging performed by DICOM enabled modalities, but this is not required. A fully enabled PACS viewer can use this information to provide views of the source images.</t>
-  </si>
-  <si>
-    <t>ImagingStudy and the image element are somewhat overlapping - typically, the list of image references in the image element will also be found in one of the imaging study resources. However, each caters to different types of displays for different types of purposes. Neither, either, or both may be provided.</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media</t>
-  </si>
-  <si>
-    <t>DICOM
-SlidesScans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Key images associated with this report</t>
-  </si>
-  <si>
-    <t>A list of key images associated with this report. The images are generally created during the diagnostic process, and may be directly of the patient, or of treated specimens (i.e. slides of interest).</t>
-  </si>
-  <si>
-    <t>Many diagnostic services include images in the report as part of their service.</t>
-  </si>
-  <si>
-    <t>OBX?</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.comment</t>
-  </si>
-  <si>
-    <t>Comment about the image (e.g. explanation)</t>
-  </si>
-  <si>
-    <t>A comment about the image. Typically, this is used to provide an explanation for why the image is included, or to draw the viewer's attention to important features.</t>
-  </si>
-  <si>
-    <t>The comment should be displayed with the image. It would be common for the report to include additional discussion of the image contents in other sections such as the conclusion.</t>
-  </si>
-  <si>
-    <t>The provider of the report should make a comment about each image included in the report.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Media)
-</t>
-  </si>
-  <si>
-    <t>Reference to the image source</t>
-  </si>
-  <si>
-    <t>Reference to the image source.</t>
-  </si>
-  <si>
-    <t>.value.reference</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report
-</t>
-  </si>
-  <si>
-    <t>Clinical conclusion (interpretation) of test results</t>
-  </si>
-  <si>
-    <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide a conclusion that is not lost among the basic result data.</t>
-  </si>
-  <si>
-    <t>OBX</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode="SPRT"].source[classCode=OBS, moodCode=EVN, code=LOINC:48767-8].value (type=ST)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
     <t>Codes for the clinical conclusion of test results</t>
@@ -1160,7 +1261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1170,7 +1271,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1192,7 +1293,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.6171875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.8515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -1329,7 +1430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>39</v>
       </c>
@@ -1348,69 +1449,69 @@
         <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>39</v>
@@ -1422,47 +1523,47 @@
         <v>42</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>54</v>
@@ -1478,50 +1579,50 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>58</v>
@@ -1530,25 +1631,25 @@
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -1557,23 +1658,23 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>60</v>
@@ -1587,50 +1688,50 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>63</v>
@@ -1639,25 +1740,25 @@
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" hidden="true">
@@ -1666,23 +1767,23 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>66</v>
@@ -1698,50 +1799,50 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>70</v>
@@ -1750,25 +1851,25 @@
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1777,23 +1878,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>72</v>
@@ -1809,26 +1910,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>76</v>
@@ -1840,19 +1941,19 @@
         <v>78</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>79</v>
@@ -1861,25 +1962,25 @@
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1895,16 +1996,16 @@
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>82</v>
@@ -1920,50 +2021,50 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>86</v>
@@ -1972,25 +2073,25 @@
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -2009,13 +2110,13 @@
         <v>42</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>90</v>
@@ -2031,50 +2132,50 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>94</v>
@@ -2086,22 +2187,22 @@
         <v>42</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -2120,13 +2221,13 @@
         <v>42</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>98</v>
@@ -2142,50 +2243,50 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>102</v>
@@ -2197,22 +2298,22 @@
         <v>42</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -2231,13 +2332,13 @@
         <v>42</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="I10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>98</v>
@@ -2255,50 +2356,50 @@
         <v>107</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>108</v>
@@ -2310,22 +2411,22 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -2344,13 +2445,13 @@
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>111</v>
@@ -2368,50 +2469,50 @@
         <v>115</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>109</v>
@@ -2423,7 +2524,7 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>64</v>
@@ -2457,13 +2558,13 @@
         <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>122</v>
@@ -2481,50 +2582,50 @@
         <v>126</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>120</v>
@@ -2536,7 +2637,7 @@
         <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>64</v>
@@ -2551,32 +2652,32 @@
         <v>129</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>72</v>
@@ -2592,100 +2693,100 @@
         <v>133</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>142</v>
@@ -2701,26 +2802,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>146</v>
@@ -2732,22 +2833,22 @@
         <v>148</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2756,245 +2857,247 @@
         <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>152</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3008,13 +3111,13 @@
         <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>98</v>
@@ -3023,60 +3126,60 @@
         <v>99</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>101</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3085,35 +3188,35 @@
         <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>42</v>
@@ -3122,72 +3225,72 @@
         <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3196,1341 +3299,1327 @@
         <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="I23" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>43</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>165</v>
@@ -4539,145 +4628,147 @@
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>43</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4690,74 +4781,74 @@
         <v>43</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4766,364 +4857,370 @@
         <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>43</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>43</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="C36" t="s" s="2">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5136,70 +5233,74 @@
         <v>43</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>308</v>
+        <v>44</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5208,31 +5309,31 @@
         <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5242,77 +5343,75 @@
         <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5321,26 +5420,1025 @@
         <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="J38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>43</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM37">
+  <autoFilter ref="A1:AM46">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5350,7 +6448,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="347">
   <si>
     <t>Path</t>
   </si>
@@ -554,9 +554,6 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-order-code-vs</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -3268,29 +3265,31 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3308,10 +3307,10 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
@@ -3319,7 +3318,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3345,16 +3344,16 @@
         <v>54</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3403,7 +3402,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3421,10 +3420,10 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>44</v>
@@ -3432,11 +3431,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3455,17 +3454,17 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3514,7 +3513,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3529,21 +3528,21 @@
         <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3652,7 +3651,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3763,7 +3762,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3789,13 +3788,13 @@
         <v>54</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3845,7 +3844,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3854,7 +3853,7 @@
         <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>64</v>
@@ -3874,7 +3873,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3900,13 +3899,13 @@
         <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3932,31 +3931,31 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3985,7 +3984,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4011,13 +4010,13 @@
         <v>111</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4067,7 +4066,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4088,7 +4087,7 @@
         <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4096,7 +4095,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4122,13 +4121,13 @@
         <v>54</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4178,7 +4177,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4207,11 +4206,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4230,19 +4229,19 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4291,7 +4290,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4306,25 +4305,25 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4343,19 +4342,19 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4404,7 +4403,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4419,21 +4418,21 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4542,7 +4541,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4565,13 +4564,13 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4643,7 +4642,7 @@
         <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>44</v>
@@ -4651,11 +4650,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4674,19 +4673,19 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4735,7 +4734,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4753,22 +4752,22 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4787,19 +4786,19 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -4848,7 +4847,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4863,25 +4862,25 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4900,19 +4899,19 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -4961,7 +4960,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4976,21 +4975,21 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5013,19 +5012,19 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5074,7 +5073,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5092,10 +5091,10 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
@@ -5103,11 +5102,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5126,19 +5125,19 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5175,7 +5174,7 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
@@ -5185,7 +5184,7 @@
         <v>164</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5203,10 +5202,10 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5214,13 +5213,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5239,19 +5238,19 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5300,7 +5299,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5318,10 +5317,10 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
@@ -5329,7 +5328,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5352,16 +5351,16 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5411,7 +5410,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5432,7 +5431,7 @@
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -5440,11 +5439,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5463,17 +5462,17 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5522,7 +5521,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5540,10 +5539,10 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -5551,7 +5550,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5660,7 +5659,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5771,11 +5770,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5797,10 +5796,10 @@
         <v>98</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>101</v>
@@ -5855,7 +5854,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5884,7 +5883,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5910,16 +5909,16 @@
         <v>54</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -5968,7 +5967,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5989,7 +5988,7 @@
         <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
@@ -5997,7 +5996,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6020,13 +6019,13 @@
         <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6077,7 +6076,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>53</v>
@@ -6098,7 +6097,7 @@
         <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6106,11 +6105,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6132,14 +6131,14 @@
         <v>54</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6188,7 +6187,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6206,10 +6205,10 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
@@ -6217,7 +6216,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6240,13 +6239,13 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6276,11 +6275,11 @@
         <v>146</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6315,10 +6314,10 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -6326,7 +6325,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6349,19 +6348,19 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6410,7 +6409,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6428,10 +6427,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="348">
   <si>
     <t>Path</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-order-code-vs</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -3265,13 +3268,11 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
@@ -3289,7 +3290,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3307,10 +3308,10 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
@@ -3318,7 +3319,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3344,16 +3345,16 @@
         <v>54</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3402,7 +3403,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3420,10 +3421,10 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>44</v>
@@ -3431,11 +3432,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3454,17 +3455,17 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3513,7 +3514,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3528,21 +3529,21 @@
         <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3651,7 +3652,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3762,7 +3763,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3788,13 +3789,13 @@
         <v>54</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3844,7 +3845,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3853,7 +3854,7 @@
         <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>64</v>
@@ -3873,7 +3874,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3899,13 +3900,13 @@
         <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3931,13 +3932,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -3955,7 +3956,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3984,7 +3985,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4010,13 +4011,13 @@
         <v>111</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4066,7 +4067,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4087,7 +4088,7 @@
         <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4095,7 +4096,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4121,13 +4122,13 @@
         <v>54</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4177,7 +4178,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4206,11 +4207,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4229,19 +4230,19 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4290,7 +4291,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4305,25 +4306,25 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4342,19 +4343,19 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4403,7 +4404,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4418,21 +4419,21 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4541,7 +4542,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4564,13 +4565,13 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4642,7 +4643,7 @@
         <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>44</v>
@@ -4650,11 +4651,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4673,19 +4674,19 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4734,7 +4735,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4752,22 +4753,22 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4786,19 +4787,19 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -4847,7 +4848,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4862,25 +4863,25 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4899,19 +4900,19 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -4960,7 +4961,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4975,21 +4976,21 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5012,19 +5013,19 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5073,7 +5074,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5091,10 +5092,10 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
@@ -5102,11 +5103,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5125,19 +5126,19 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5174,7 +5175,7 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
@@ -5184,7 +5185,7 @@
         <v>164</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5202,10 +5203,10 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5213,13 +5214,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5238,19 +5239,19 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5299,7 +5300,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5317,10 +5318,10 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
@@ -5328,7 +5329,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5351,16 +5352,16 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5410,7 +5411,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5431,7 +5432,7 @@
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -5439,11 +5440,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5462,17 +5463,17 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5521,7 +5522,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5539,10 +5540,10 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -5550,7 +5551,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5659,7 +5660,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5770,11 +5771,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5796,10 +5797,10 @@
         <v>98</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>101</v>
@@ -5854,7 +5855,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5883,7 +5884,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5909,16 +5910,16 @@
         <v>54</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -5967,7 +5968,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5988,7 +5989,7 @@
         <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
@@ -5996,7 +5997,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6019,13 +6020,13 @@
         <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6076,7 +6077,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>53</v>
@@ -6097,7 +6098,7 @@
         <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6105,11 +6106,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6131,14 +6132,14 @@
         <v>54</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6187,7 +6188,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6205,10 +6206,10 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
@@ -6216,7 +6217,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6239,13 +6240,13 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6275,10 +6276,10 @@
         <v>146</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6296,7 +6297,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6314,10 +6315,10 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -6325,7 +6326,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6348,19 +6349,19 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6409,7 +6410,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6427,10 +6428,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="347">
   <si>
     <t>Path</t>
   </si>
@@ -444,7 +444,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-diagnostic-report-status-vs</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -554,9 +554,6 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-order-code-vs</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1294,7 +1291,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.6171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.8515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.54296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -2717,7 +2714,9 @@
       <c r="W13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="X13" s="2"/>
+      <c r="X13" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="Y13" t="s" s="2">
         <v>136</v>
       </c>
@@ -3268,29 +3267,31 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3308,10 +3309,10 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
@@ -3319,7 +3320,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3345,16 +3346,16 @@
         <v>54</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3403,7 +3404,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3421,10 +3422,10 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>44</v>
@@ -3432,11 +3433,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3455,17 +3456,17 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3514,7 +3515,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3529,21 +3530,21 @@
         <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3652,7 +3653,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3763,7 +3764,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3789,13 +3790,13 @@
         <v>54</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3845,7 +3846,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3854,7 +3855,7 @@
         <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>64</v>
@@ -3874,7 +3875,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3900,13 +3901,13 @@
         <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3932,31 +3933,31 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3985,7 +3986,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4011,13 +4012,13 @@
         <v>111</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4067,7 +4068,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4088,7 +4089,7 @@
         <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4096,7 +4097,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4122,13 +4123,13 @@
         <v>54</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4178,7 +4179,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4207,11 +4208,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4230,19 +4231,19 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4291,7 +4292,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4306,25 +4307,25 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4343,19 +4344,19 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4404,7 +4405,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4419,21 +4420,21 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4542,7 +4543,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4565,13 +4566,13 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4643,7 +4644,7 @@
         <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>44</v>
@@ -4651,11 +4652,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4674,19 +4675,19 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4735,7 +4736,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4753,22 +4754,22 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4787,19 +4788,19 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -4848,7 +4849,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4863,25 +4864,25 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4900,19 +4901,19 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -4961,7 +4962,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4976,21 +4977,21 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5013,19 +5014,19 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5074,7 +5075,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5092,10 +5093,10 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
@@ -5103,11 +5104,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5126,19 +5127,19 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5175,7 +5176,7 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
@@ -5185,7 +5186,7 @@
         <v>164</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5203,10 +5204,10 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5214,13 +5215,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5239,19 +5240,19 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5300,7 +5301,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5318,10 +5319,10 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
@@ -5329,7 +5330,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5352,16 +5353,16 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5411,7 +5412,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5432,7 +5433,7 @@
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -5440,11 +5441,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5463,17 +5464,17 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5522,7 +5523,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5540,10 +5541,10 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -5551,7 +5552,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5660,7 +5661,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5771,11 +5772,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5797,10 +5798,10 @@
         <v>98</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>101</v>
@@ -5855,7 +5856,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5884,7 +5885,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5910,16 +5911,16 @@
         <v>54</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -5968,7 +5969,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5989,7 +5990,7 @@
         <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
@@ -5997,7 +5998,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6020,13 +6021,13 @@
         <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6077,7 +6078,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>53</v>
@@ -6098,7 +6099,7 @@
         <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6106,11 +6107,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6132,14 +6133,14 @@
         <v>54</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6188,7 +6189,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6206,10 +6207,10 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
@@ -6217,7 +6218,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6240,13 +6241,13 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6276,11 +6277,11 @@
         <v>146</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6297,7 +6298,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6315,10 +6316,10 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -6326,7 +6327,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6349,19 +6350,19 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6410,7 +6411,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6428,10 +6429,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -6,16 +6,131 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="384">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-lab-diagnostic-report</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BwLabDiagnosticReport</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Botswana Lab Diagnostic Report</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-09-13T23:50:16+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>B-TECHBW</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Botswana (BWA)</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>DiagnosticReport resource that holds the results of a lab order</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/StructureDefinition/DiagnosticReport-uv-ips</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -132,9 +247,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>DiagnosticReport</t>
   </si>
   <si>
     <t>Report
@@ -1258,9 +1370,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AM46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1310,5132 +1601,5132 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>257</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T23:50:16+00:00</t>
+    <t>2021-09-14T04:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T04:26:25+00:00</t>
+    <t>2021-09-16T21:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T21:56:02+00:00</t>
+    <t>2022-01-27T20:53:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T20:53:37+00:00</t>
+    <t>2022-01-27T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:03:35+00:00</t>
+    <t>2022-01-27T21:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:13:11+00:00</t>
+    <t>2022-01-27T21:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:19:29+00:00</t>
+    <t>2022-01-27T21:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:25:27+00:00</t>
+    <t>2022-01-27T21:29:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:29:22+00:00</t>
+    <t>2022-01-27T21:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:47:10+00:00</t>
+    <t>2022-01-27T21:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:37+00:00</t>
+    <t>2022-01-27T21:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:46+00:00</t>
+    <t>2022-02-05T00:41:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-bw-lab-diagnostic-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-05T00:41:59+00:00</t>
+    <t>2022-02-05T01:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
